--- a/study1/presentation_materials/study1_previous_models.xlsx
+++ b/study1/presentation_materials/study1_previous_models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="8_{4091CEA5-9BBF-4D88-8E34-958241BE5EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCA41D2C-CA9B-4FAA-B5B6-DD121FD1584E}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="8_{4091CEA5-9BBF-4D88-8E34-958241BE5EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EEB07E8-7729-4293-9EDC-0AB73B192D30}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{46F2C4E6-413D-41BD-817F-B1A4F1944531}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t>Examiner</t>
     <phoneticPr fontId="2"/>
@@ -204,6 +204,11 @@
   <si>
     <t>Our Study 
 (Resampling Strategy 1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unknown 
+(68,733)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -396,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,32 +432,35 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,22 +551,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>341313</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>93663</xdr:rowOff>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>169863</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9CEB81-8CCA-6FF0-DF9F-29DC3AFAFB7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69FF64D-BB48-56B1-583C-31F414249F0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,8 +589,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="222250" y="93663"/>
-          <a:ext cx="12163425" cy="4219575"/>
+          <a:off x="341313" y="214312"/>
+          <a:ext cx="12176125" cy="4040188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -928,7 +936,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1114,21 +1122,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E9195-2419-4AF7-ADFF-710457EF5B65}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="1.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="0.9140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -1138,195 +1146,195 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="70">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:9" ht="56">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="15" customFormat="1" ht="4" customHeight="1">
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="10"/>
+    <row r="4" spans="2:9" ht="4" customHeight="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="2:9" ht="56">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="15" customFormat="1" ht="4" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10"/>
+    <row r="6" spans="2:9" ht="4" customHeight="1">
+      <c r="B6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="2:9" ht="42">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="15" customFormat="1" ht="3.5" customHeight="1">
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10"/>
+    <row r="8" spans="2:9" ht="3.5" customHeight="1">
+      <c r="B8" s="18"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="2:9" ht="42">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="15" customFormat="1" ht="4" customHeight="1">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
+    <row r="10" spans="2:9" ht="4" customHeight="1">
+      <c r="B10" s="18"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9" ht="42">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1357,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4305D4-18EE-4692-A09C-B7B6971AA72E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
